--- a/window.xlsx
+++ b/window.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\git\git1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7912A6-7107-4042-BFB2-2A664C7D97A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B882D7E-8568-47A3-AFD1-BB7F95DDBAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>arjun</t>
   </si>
   <si>
     <t>sahil</t>
+  </si>
+  <si>
+    <t>dfgn</t>
   </si>
 </sst>
 </file>
@@ -348,15 +351,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -364,12 +367,17 @@
         <v>23445</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>635325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
